--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5689,15 +5689,90 @@
         <v>1.5982</v>
       </c>
       <c r="D210" t="n">
-        <v>1.6165</v>
+        <v>1.6356</v>
       </c>
       <c r="E210" t="n">
         <v>1.5705</v>
       </c>
       <c r="F210" t="n">
-        <v>1.6117</v>
+        <v>1.6172</v>
       </c>
       <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNZD</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1.6163</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.6702</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.5669</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.6614</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNZD</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.6614</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.6685</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.6013</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.6288</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNZD</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1.6288</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.6082</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.6101</v>
+      </c>
+      <c r="G213" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -5767,10 +5767,10 @@
         <v>1.634</v>
       </c>
       <c r="E213" t="n">
-        <v>1.6082</v>
+        <v>1.5601</v>
       </c>
       <c r="F213" t="n">
-        <v>1.6101</v>
+        <v>1.5753</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5770,9 +5770,34 @@
         <v>1.5601</v>
       </c>
       <c r="F213" t="n">
-        <v>1.5753</v>
+        <v>1.6106</v>
       </c>
       <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNZD</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.6492</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.6089</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.6393</v>
+      </c>
+      <c r="G214" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -12967,13 +12967,13 @@
         <v>0.62169</v>
       </c>
       <c r="E501" t="n">
-        <v>0.59438</v>
+        <v>0.58863</v>
       </c>
       <c r="F501" t="n">
-        <v>0.59728</v>
+        <v>0.59284</v>
       </c>
       <c r="G501" t="n">
-        <v>2134802</v>
+        <v>4035956</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -5867,10 +5867,10 @@
         <v>1.7269</v>
       </c>
       <c r="E217" t="n">
-        <v>1.6668</v>
+        <v>1.6542</v>
       </c>
       <c r="F217" t="n">
-        <v>1.7004</v>
+        <v>1.6664</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/New Zealand_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5389,12 +5389,35 @@
         <v>1.7269</v>
       </c>
       <c r="E217">
-        <v>1.6436</v>
+        <v>1.6124</v>
       </c>
       <c r="F217">
-        <v>1.6575</v>
+        <v>1.6245</v>
       </c>
       <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>1.6245</v>
+      </c>
+      <c r="D218">
+        <v>1.6318</v>
+      </c>
+      <c r="E218">
+        <v>1.6077</v>
+      </c>
+      <c r="F218">
+        <v>1.6236</v>
+      </c>
+      <c r="G218">
         <v>0</v>
       </c>
     </row>
